--- a/Sprint-Elvis.xlsx
+++ b/Sprint-Elvis.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvis Nogueira\Google Drive\Elvis\UFRPE\2018.2\PBD\Projeto\Veiculos_Pajeu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B84C070-514C-4C00-9C77-5489FFEB41DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint-Backlog" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -331,14 +337,14 @@
     <t>Concorrência de reserva</t>
   </si>
   <si>
-    <t>Atualizado: 03 de Novembro de 2018</t>
+    <t>Atualizado: 01 de Janeiro de 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -503,6 +509,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1137,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1329,11 +1341,266 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2091,18 +2358,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2226,7 +2493,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="41">
         <f>SUM(G10:G78)</f>
-        <v>19.980000000000004</v>
+        <v>47.939999999999962</v>
       </c>
       <c r="H7" s="68"/>
       <c r="I7" s="44"/>
@@ -2307,9 +2574,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
       <c r="H10" s="70"/>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="61" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="20"/>
@@ -2339,7 +2608,9 @@
         <v>2</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>3.5</v>
+      </c>
       <c r="H11" s="71"/>
       <c r="I11" s="61" t="s">
         <v>15</v>
@@ -2372,9 +2643,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>2.5</v>
+      </c>
       <c r="H12" s="72"/>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="61" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="20"/>
@@ -2400,7 +2673,9 @@
         <v>3</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
       <c r="H13" s="71"/>
       <c r="I13" s="61" t="s">
         <v>15</v>
@@ -2847,10 +3122,12 @@
         <f t="shared" ref="F28:F54" si="0">D28*E28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
       <c r="H28" s="71"/>
-      <c r="I28" s="63" t="s">
-        <v>16</v>
+      <c r="I28" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="P28" s="8"/>
     </row>
@@ -3700,10 +3977,12 @@
         <f t="shared" ref="F55:F71" si="1">D55*E55</f>
         <v>0</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
       <c r="H55" s="32"/>
-      <c r="I55" s="63" t="s">
-        <v>16</v>
+      <c r="I55" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J55" s="22"/>
       <c r="K55" s="21"/>
@@ -3731,10 +4010,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3">
+        <v>0.33</v>
+      </c>
       <c r="H56" s="32"/>
-      <c r="I56" s="62" t="s">
-        <v>17</v>
+      <c r="I56" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J56" s="22"/>
       <c r="K56" s="21"/>
@@ -3762,10 +4043,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="3">
+        <v>0.33</v>
+      </c>
       <c r="H57" s="32"/>
-      <c r="I57" s="62" t="s">
-        <v>17</v>
+      <c r="I57" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J57" s="22"/>
       <c r="K57" s="21"/>
@@ -3793,10 +4076,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3">
+        <v>0.33</v>
+      </c>
       <c r="H58" s="32"/>
-      <c r="I58" s="62" t="s">
-        <v>17</v>
+      <c r="I58" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
@@ -3825,9 +4110,9 @@
         <v>0</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="62" t="s">
-        <v>17</v>
+      <c r="H59" s="83"/>
+      <c r="I59" s="63" t="s">
+        <v>16</v>
       </c>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
@@ -3885,10 +4170,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3">
+        <v>0.5</v>
+      </c>
       <c r="H61" s="32"/>
-      <c r="I61" s="62" t="s">
-        <v>17</v>
+      <c r="I61" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
@@ -3916,10 +4203,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="3">
+        <v>0.75</v>
+      </c>
       <c r="H62" s="32"/>
-      <c r="I62" s="62" t="s">
-        <v>17</v>
+      <c r="I62" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
@@ -3947,10 +4236,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="3">
+        <v>1.66</v>
+      </c>
       <c r="H63" s="32"/>
-      <c r="I63" s="62" t="s">
-        <v>17</v>
+      <c r="I63" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
@@ -3978,9 +4269,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="I64" s="62" t="s">
-        <v>17</v>
+      <c r="G64" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="H64" s="32"/>
+      <c r="I64" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
@@ -4008,9 +4302,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="I65" s="62" t="s">
-        <v>17</v>
+      <c r="G65" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
@@ -4038,9 +4335,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="I66" s="62" t="s">
-        <v>17</v>
+      <c r="G66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
@@ -4068,10 +4368,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
       <c r="H67" s="32"/>
-      <c r="I67" s="62" t="s">
-        <v>17</v>
+      <c r="I67" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="P67" s="8"/>
     </row>
@@ -4093,10 +4395,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="3"/>
+      <c r="G68" s="3">
+        <v>0.25</v>
+      </c>
       <c r="H68" s="32"/>
-      <c r="I68" s="62" t="s">
-        <v>17</v>
+      <c r="I68" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J68" s="19"/>
       <c r="K68" s="22"/>
@@ -4124,10 +4428,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="3"/>
+      <c r="G69" s="3">
+        <v>0.15</v>
+      </c>
       <c r="H69" s="32"/>
-      <c r="I69" s="62" t="s">
-        <v>17</v>
+      <c r="I69" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="J69" s="19"/>
       <c r="K69" s="22"/>
@@ -4622,141 +4928,471 @@
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsText" dxfId="68" priority="109" stopIfTrue="1" operator="containsText" text="BLI">
+    <cfRule type="containsText" dxfId="104" priority="185" stopIfTrue="1" operator="containsText" text="BLI">
       <formula>NOT(ISERROR(SEARCH("BLI", B90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12 B35:B38 B40:B42 B14 B33 B29:B31">
-    <cfRule type="containsText" dxfId="67" priority="110" stopIfTrue="1" operator="containsText" text="BLI">
+    <cfRule type="containsText" dxfId="103" priority="186" stopIfTrue="1" operator="containsText" text="BLI">
       <formula>NOT(ISERROR(SEARCH("BLI", B10)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="66" priority="110" stopIfTrue="1" operator="notContains" text="BLI">
+    <cfRule type="notContainsText" dxfId="102" priority="186" stopIfTrue="1" operator="notContains" text="BLI">
       <formula>ISERROR(SEARCH("BLI", B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11 H13:H29">
-    <cfRule type="containsText" dxfId="65" priority="111" stopIfTrue="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="101" priority="187" stopIfTrue="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done", H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J18">
-    <cfRule type="containsText" dxfId="64" priority="112" stopIfTrue="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="100" priority="188" stopIfTrue="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE", N14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="112" stopIfTrue="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="99" priority="188" stopIfTrue="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE", N14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B28 D30:D46 F30:F46 I28 H30:H46 B43:B58 D63:D67 B63:B67 B68:D69 I70:I75 H70 C55:D58 D61 H61:I63 F55:F58 F61:F70 B71 C70:D71 B76:D78 H67:I69 I64:I66 C73:C74 C75:D75 H55:I58">
-    <cfRule type="containsText" dxfId="62" priority="106" operator="containsText" text="Pending">
+  <conditionalFormatting sqref="B15:B28 D30:D46 F30:F46 H30:H46 B43:B58 D63:D67 B63:B67 B68:D69 I70:I75 C55:D58 D61 F55:F58 F61:F70 B71 C70:D71 B76:D78 C73:C74 C75:D75 H55:H58 H61:H63 H67:H70">
+    <cfRule type="containsText" dxfId="98" priority="182" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="107" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="97" priority="183" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="60" priority="104" stopIfTrue="1" operator="containsText" text="BLI">
+    <cfRule type="containsText" dxfId="96" priority="180" stopIfTrue="1" operator="containsText" text="BLI">
       <formula>NOT(ISERROR(SEARCH("BLI", B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="notContainsText" dxfId="59" priority="102" stopIfTrue="1" operator="notContains" text="BLI">
+    <cfRule type="notContainsText" dxfId="95" priority="178" stopIfTrue="1" operator="notContains" text="BLI">
       <formula>ISERROR(SEARCH("BLI", B39))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="102" stopIfTrue="1" operator="containsText" text="BLI">
+    <cfRule type="containsText" dxfId="94" priority="178" stopIfTrue="1" operator="containsText" text="BLI">
       <formula>NOT(ISERROR(SEARCH("BLI", B39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 F47:F48 H47:H48">
-    <cfRule type="containsText" dxfId="57" priority="97" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="93" priority="173" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="98" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="92" priority="174" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D54 D62 F49:F54 H49:H54">
-    <cfRule type="containsText" dxfId="55" priority="95" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="91" priority="171" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="96" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="90" priority="172" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="53" priority="93" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="89" priority="169" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="94" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="88" priority="170" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="containsText" dxfId="51" priority="89" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="87" priority="165" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="90" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="86" priority="166" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="containsText" dxfId="49" priority="69" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="85" priority="145" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="84" priority="146" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="83" priority="143" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",B70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="68" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="82" priority="144" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F75 H71:H75">
-    <cfRule type="containsText" dxfId="45" priority="65" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="81" priority="141" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",F71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="66" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="80" priority="142" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="containsText" dxfId="43" priority="59" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="79" priority="135" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="60" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="78" priority="136" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="41" priority="57" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="77" priority="133" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="58" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="76" priority="134" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C70">
-    <cfRule type="containsText" dxfId="39" priority="55" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="75" priority="131" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="56" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="74" priority="132" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I27">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="73" priority="116" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="72" priority="117" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I27">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I54">
+    <cfRule type="containsText" dxfId="71" priority="111" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="112" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I54">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59 D59 F59:H59 G60:H60">
+    <cfRule type="containsText" dxfId="69" priority="108" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",B59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="109" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",B59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C60">
+    <cfRule type="containsText" dxfId="67" priority="106" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",C59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="107" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C60">
+    <cfRule type="containsText" dxfId="65" priority="104" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",C59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="105" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C63">
+    <cfRule type="containsText" dxfId="63" priority="102" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",C62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="103" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C65">
+    <cfRule type="containsText" dxfId="61" priority="100" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",C64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="101" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="containsText" dxfId="59" priority="98" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="99" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="containsText" dxfId="57" priority="96" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",B60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="97" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",B60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:H78">
+    <cfRule type="containsText" dxfId="55" priority="91" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",F76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="92" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",F76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="53" priority="89" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="90" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B75">
+    <cfRule type="containsText" dxfId="51" priority="87" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",B72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="88" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",B72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76:I78">
+    <cfRule type="containsText" dxfId="49" priority="85" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="86" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="47" priority="83" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="84" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="45" priority="80" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="81" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="43" priority="78" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="76" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="containsText" dxfId="39" priority="72" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="73" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="70" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="containsText" dxfId="35" priority="66" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="67" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="containsText" dxfId="33" priority="60" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="58" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="52" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="containsText" dxfId="27" priority="48" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="46" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="containsText" dxfId="23" priority="40" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4766,24 +5402,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10 I12">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I54">
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I54">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="I63">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4792,104 +5420,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59 D59 F59:H59 G60:H60">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",B59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",B59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C60">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C60">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C63">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C65">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:I60">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",B60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",B60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76:H78">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",F76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",C72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B75">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",B72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",B72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76:I78">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I64">
+    <cfRule type="containsText" dxfId="19" priority="34" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4898,23 +5438,95 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",I11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="I65">
+    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H66">
+    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",H64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",I69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
